--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H2">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I2">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J2">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N2">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O2">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P2">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q2">
-        <v>678.3242104383041</v>
+        <v>794.3264206426902</v>
       </c>
       <c r="R2">
-        <v>2713.296841753217</v>
+        <v>3177.305682570761</v>
       </c>
       <c r="S2">
-        <v>0.007827173129283186</v>
+        <v>0.007668945049274673</v>
       </c>
       <c r="T2">
-        <v>0.00383493163684672</v>
+        <v>0.003766820270027289</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H3">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I3">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J3">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.059622</v>
       </c>
       <c r="O3">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P3">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q3">
-        <v>612.3025860037592</v>
+        <v>852.7881347217331</v>
       </c>
       <c r="R3">
-        <v>3673.815516022555</v>
+        <v>5116.728808330398</v>
       </c>
       <c r="S3">
-        <v>0.007065350571907875</v>
+        <v>0.008233372545461737</v>
       </c>
       <c r="T3">
-        <v>0.005192513820651356</v>
+        <v>0.006066082309038982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H4">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I4">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J4">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N4">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O4">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P4">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q4">
-        <v>3090.048325085693</v>
+        <v>2090.919565726972</v>
       </c>
       <c r="R4">
-        <v>18540.28995051416</v>
+        <v>12545.51739436183</v>
       </c>
       <c r="S4">
-        <v>0.03565602236527731</v>
+        <v>0.02018710046058817</v>
       </c>
       <c r="T4">
-        <v>0.02620455800980322</v>
+        <v>0.01487320199573201</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H5">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I5">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J5">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N5">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O5">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P5">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q5">
-        <v>706.8254786329617</v>
+        <v>804.8580630356997</v>
       </c>
       <c r="R5">
-        <v>2827.301914531847</v>
+        <v>3219.432252142799</v>
       </c>
       <c r="S5">
-        <v>0.008156048845542184</v>
+        <v>0.007770624390023849</v>
       </c>
       <c r="T5">
-        <v>0.0039960646369785</v>
+        <v>0.003816762967401713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H6">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I6">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J6">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N6">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O6">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P6">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q6">
-        <v>523.8908803294712</v>
+        <v>8337.77958330486</v>
       </c>
       <c r="R6">
-        <v>3143.345281976827</v>
+        <v>50026.67749982917</v>
       </c>
       <c r="S6">
-        <v>0.006045169195039828</v>
+        <v>0.08049835910732234</v>
       </c>
       <c r="T6">
-        <v>0.004442755426493142</v>
+        <v>0.0593085845917118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H7">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I7">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J7">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N7">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O7">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P7">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q7">
-        <v>4535.9134507837</v>
+        <v>2486.15289847819</v>
       </c>
       <c r="R7">
-        <v>27215.4807047022</v>
+        <v>14916.91739086914</v>
       </c>
       <c r="S7">
-        <v>0.05233983887407995</v>
+        <v>0.02400294068916622</v>
       </c>
       <c r="T7">
-        <v>0.03846593795429135</v>
+        <v>0.01768458952579773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J8">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N8">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O8">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P8">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q8">
-        <v>177.8630191719894</v>
+        <v>149.5451369227189</v>
       </c>
       <c r="R8">
-        <v>1067.178115031936</v>
+        <v>897.2708215363131</v>
       </c>
       <c r="S8">
-        <v>0.002052358773184017</v>
+        <v>0.001443806233360169</v>
       </c>
       <c r="T8">
-        <v>0.001508332981673316</v>
+        <v>0.001063749684774547</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J9">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>39.059622</v>
       </c>
       <c r="O9">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P9">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q9">
         <v>160.551525240526</v>
@@ -1013,10 +1013,10 @@
         <v>1444.963727164734</v>
       </c>
       <c r="S9">
-        <v>0.001852601698258821</v>
+        <v>0.001550069080732094</v>
       </c>
       <c r="T9">
-        <v>0.002042289301387096</v>
+        <v>0.001713061065164631</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J10">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N10">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O10">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P10">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q10">
-        <v>810.2398764920372</v>
+        <v>393.6503238782321</v>
       </c>
       <c r="R10">
-        <v>7292.158888428335</v>
+        <v>3542.852914904089</v>
       </c>
       <c r="S10">
-        <v>0.00934934606779602</v>
+        <v>0.003800556829028497</v>
       </c>
       <c r="T10">
-        <v>0.0103066241746248</v>
+        <v>0.004200190824191741</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J11">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N11">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O11">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P11">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q11">
-        <v>185.3363210729443</v>
+        <v>151.5278934605278</v>
       </c>
       <c r="R11">
-        <v>1112.017926437666</v>
+        <v>909.167360763167</v>
       </c>
       <c r="S11">
-        <v>0.002138593094362645</v>
+        <v>0.001462949057442798</v>
       </c>
       <c r="T11">
-        <v>0.001571708875052885</v>
+        <v>0.001077853497746873</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>36.993797</v>
       </c>
       <c r="I12">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J12">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N12">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O12">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P12">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q12">
-        <v>137.369140387694</v>
+        <v>1569.725439080734</v>
       </c>
       <c r="R12">
-        <v>1236.322263489246</v>
+        <v>14127.52895172661</v>
       </c>
       <c r="S12">
-        <v>0.001585100498978994</v>
+        <v>0.01515515261977392</v>
       </c>
       <c r="T12">
-        <v>0.001747398695429612</v>
+        <v>0.0167487386286686</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>36.993797</v>
       </c>
       <c r="I13">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J13">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N13">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O13">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P13">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q13">
-        <v>1189.359378073686</v>
+        <v>468.0595608451724</v>
       </c>
       <c r="R13">
-        <v>10704.23440266317</v>
+        <v>4212.536047606552</v>
       </c>
       <c r="S13">
-        <v>0.01372400044383501</v>
+        <v>0.004518952106622585</v>
       </c>
       <c r="T13">
-        <v>0.01512919873981473</v>
+        <v>0.004994126394381512</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H14">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I14">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J14">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N14">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O14">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P14">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q14">
-        <v>1861.375662806869</v>
+        <v>1504.779440824546</v>
       </c>
       <c r="R14">
-        <v>11168.25397684122</v>
+        <v>9028.676644947274</v>
       </c>
       <c r="S14">
-        <v>0.0214783865107948</v>
+        <v>0.01452812161733791</v>
       </c>
       <c r="T14">
-        <v>0.01578503680284866</v>
+        <v>0.01070384961203743</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H15">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I15">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J15">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>39.059622</v>
       </c>
       <c r="O15">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P15">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q15">
-        <v>1680.207066654256</v>
+        <v>1615.529861728748</v>
       </c>
       <c r="R15">
-        <v>15121.86359988831</v>
+        <v>14539.76875555873</v>
       </c>
       <c r="S15">
-        <v>0.01938788473324595</v>
+        <v>0.01559737837378719</v>
       </c>
       <c r="T15">
-        <v>0.0213730072710441</v>
+        <v>0.01723746505423888</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H16">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I16">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J16">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N16">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O16">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P16">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q16">
-        <v>8479.338730214433</v>
+        <v>3961.05768756628</v>
       </c>
       <c r="R16">
-        <v>76314.0485719299</v>
+        <v>35649.51918809651</v>
       </c>
       <c r="S16">
-        <v>0.09784296541669896</v>
+        <v>0.03824263294474662</v>
       </c>
       <c r="T16">
-        <v>0.1078610916066402</v>
+        <v>0.0422639005844091</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H17">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I17">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J17">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N17">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O17">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P17">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q17">
-        <v>1939.585412894349</v>
+        <v>1524.730683209628</v>
       </c>
       <c r="R17">
-        <v>11637.5124773661</v>
+        <v>9148.384099257766</v>
       </c>
       <c r="S17">
-        <v>0.02238084767156795</v>
+        <v>0.01472074391660898</v>
       </c>
       <c r="T17">
-        <v>0.01644827948305586</v>
+        <v>0.01084576748536125</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H18">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I18">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J18">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N18">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O18">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P18">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q18">
-        <v>1437.598304182064</v>
+        <v>15795.16804808331</v>
       </c>
       <c r="R18">
-        <v>12938.38473763858</v>
+        <v>142156.5124327498</v>
       </c>
       <c r="S18">
-        <v>0.01658842577640882</v>
+        <v>0.1524968484704333</v>
       </c>
       <c r="T18">
-        <v>0.01828691214191073</v>
+        <v>0.168532110550601</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H19">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I19">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J19">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N19">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O19">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P19">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q19">
-        <v>12446.90780007922</v>
+        <v>4709.791429761833</v>
       </c>
       <c r="R19">
-        <v>112022.1702007129</v>
+        <v>42388.12286785649</v>
       </c>
       <c r="S19">
-        <v>0.1436246868035184</v>
+        <v>0.04547139655654947</v>
       </c>
       <c r="T19">
-        <v>0.1583303964093197</v>
+        <v>0.05025277904575465</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H20">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I20">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J20">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N20">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O20">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P20">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q20">
-        <v>184.348703740736</v>
+        <v>211.6379735176315</v>
       </c>
       <c r="R20">
-        <v>737.3948149629441</v>
+        <v>846.5518940705259</v>
       </c>
       <c r="S20">
-        <v>0.002127196992431269</v>
+        <v>0.002043290953275055</v>
       </c>
       <c r="T20">
-        <v>0.001042222384676822</v>
+        <v>0.001003620410748387</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H21">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I21">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J21">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>39.059622</v>
       </c>
       <c r="O21">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P21">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q21">
-        <v>166.405954984206</v>
+        <v>227.214339070278</v>
       </c>
       <c r="R21">
-        <v>998.4357299052361</v>
+        <v>1363.286034421668</v>
       </c>
       <c r="S21">
-        <v>0.001920155877325199</v>
+        <v>0.002193675339827387</v>
       </c>
       <c r="T21">
-        <v>0.001411173561643054</v>
+        <v>0.001616228962946279</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H22">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I22">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J22">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N22">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O22">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P22">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q22">
-        <v>839.7848616632727</v>
+        <v>557.0984020911462</v>
       </c>
       <c r="R22">
-        <v>5038.709169979636</v>
+        <v>3342.590412546877</v>
       </c>
       <c r="S22">
-        <v>0.009690265218961124</v>
+        <v>0.005378591120283974</v>
       </c>
       <c r="T22">
-        <v>0.007121633323517532</v>
+        <v>0.003962771787885741</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H23">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I23">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J23">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N23">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O23">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P23">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q23">
-        <v>192.094515796091</v>
+        <v>214.4439930531085</v>
       </c>
       <c r="R23">
-        <v>768.3780631843641</v>
+        <v>857.775972212434</v>
       </c>
       <c r="S23">
-        <v>0.002216575804290243</v>
+        <v>0.002070382094983967</v>
       </c>
       <c r="T23">
-        <v>0.001086013626751103</v>
+        <v>0.00101692699477939</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H24">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I24">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J24">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N24">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O24">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P24">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q24">
-        <v>142.378236253614</v>
+        <v>2221.493241052703</v>
       </c>
       <c r="R24">
-        <v>854.2694175216841</v>
+        <v>13328.95944631622</v>
       </c>
       <c r="S24">
-        <v>0.001642900382810943</v>
+        <v>0.02144774383707899</v>
       </c>
       <c r="T24">
-        <v>0.001207411133655274</v>
+        <v>0.01580200321806382</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H25">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I25">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J25">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N25">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O25">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P25">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q25">
-        <v>1232.728763126166</v>
+        <v>662.4031979991172</v>
       </c>
       <c r="R25">
-        <v>7396.372578756997</v>
+        <v>3974.419187994703</v>
       </c>
       <c r="S25">
-        <v>0.01422443914275298</v>
+        <v>0.006395272263270384</v>
       </c>
       <c r="T25">
-        <v>0.01045391818679624</v>
+        <v>0.004711829535649481</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H26">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I26">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J26">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N26">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O26">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P26">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q26">
-        <v>603.06084740704</v>
+        <v>1678.875068754245</v>
       </c>
       <c r="R26">
-        <v>3618.36508444224</v>
+        <v>10073.25041252547</v>
       </c>
       <c r="S26">
-        <v>0.006958710285597944</v>
+        <v>0.01620895429420087</v>
       </c>
       <c r="T26">
-        <v>0.005114141041428737</v>
+        <v>0.01194223270587584</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H27">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I27">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J27">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>39.059622</v>
       </c>
       <c r="O27">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P27">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q27">
-        <v>544.36464260409</v>
+        <v>1802.438772155336</v>
       </c>
       <c r="R27">
-        <v>4899.281783436811</v>
+        <v>16221.94894939803</v>
       </c>
       <c r="S27">
-        <v>0.00628141563806105</v>
+        <v>0.01740191883225707</v>
       </c>
       <c r="T27">
-        <v>0.006924568819749326</v>
+        <v>0.01923175552706031</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H28">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I28">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J28">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N28">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O28">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P28">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q28">
-        <v>2747.192467523424</v>
+        <v>4419.332705601311</v>
       </c>
       <c r="R28">
-        <v>24724.73220771081</v>
+        <v>39773.99435041181</v>
       </c>
       <c r="S28">
-        <v>0.03169981364644843</v>
+        <v>0.04266711869699245</v>
       </c>
       <c r="T28">
-        <v>0.03494555269324904</v>
+        <v>0.04715362735192081</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H29">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I29">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J29">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N29">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O29">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P29">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q29">
-        <v>628.3997615798651</v>
+        <v>1701.134572387969</v>
       </c>
       <c r="R29">
-        <v>3770.39856947919</v>
+        <v>10206.80743432781</v>
       </c>
       <c r="S29">
-        <v>0.007251095645115917</v>
+        <v>0.01642386205221431</v>
       </c>
       <c r="T29">
-        <v>0.005329022809120446</v>
+        <v>0.01210056978363617</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H30">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I30">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J30">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N30">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O30">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P30">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q30">
-        <v>465.7626447332101</v>
+        <v>17622.59180533466</v>
       </c>
       <c r="R30">
-        <v>4191.86380259889</v>
+        <v>158603.326248012</v>
       </c>
       <c r="S30">
-        <v>0.00537442833586025</v>
+        <v>0.1701399886353552</v>
       </c>
       <c r="T30">
-        <v>0.005924715227085794</v>
+        <v>0.1880304521790239</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H31">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I31">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J31">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N31">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O31">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P31">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q31">
-        <v>4032.63184079349</v>
+        <v>5254.69128294763</v>
       </c>
       <c r="R31">
-        <v>36293.68656714141</v>
+        <v>47292.22154652867</v>
       </c>
       <c r="S31">
-        <v>0.04653247974763457</v>
+        <v>0.05073221493403544</v>
       </c>
       <c r="T31">
-        <v>0.05129693319666224</v>
+        <v>0.0560667800121615</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H32">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I32">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J32">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N32">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O32">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P32">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q32">
-        <v>2288.233726479211</v>
+        <v>1014.834572722883</v>
       </c>
       <c r="R32">
-        <v>13729.40235887527</v>
+        <v>6089.007436337301</v>
       </c>
       <c r="S32">
-        <v>0.02640389545560326</v>
+        <v>0.009797874488448889</v>
       </c>
       <c r="T32">
-        <v>0.01940492416857261</v>
+        <v>0.007218756684746979</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H33">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I33">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J33">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>39.059622</v>
       </c>
       <c r="O33">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P33">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q33">
-        <v>2065.518827934674</v>
+        <v>1089.525489562902</v>
       </c>
       <c r="R33">
-        <v>18589.66945141207</v>
+        <v>9805.729406066119</v>
       </c>
       <c r="S33">
-        <v>0.02383399150325512</v>
+        <v>0.01051898928715166</v>
       </c>
       <c r="T33">
-        <v>0.02627435022984013</v>
+        <v>0.01162507607995943</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H34">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I34">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J34">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N34">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O34">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P34">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q34">
-        <v>10423.85438276316</v>
+        <v>2671.36709662205</v>
       </c>
       <c r="R34">
-        <v>93814.68944486848</v>
+        <v>24042.30386959845</v>
       </c>
       <c r="S34">
-        <v>0.1202807030514288</v>
+        <v>0.02579111929055466</v>
       </c>
       <c r="T34">
-        <v>0.1325962257489697</v>
+        <v>0.02850309243172484</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H35">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I35">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J35">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N35">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O35">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P35">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q35">
-        <v>2384.378847244256</v>
+        <v>1028.289840645776</v>
       </c>
       <c r="R35">
-        <v>14306.27308346554</v>
+        <v>6169.739043874659</v>
       </c>
       <c r="S35">
-        <v>0.02751331259593736</v>
+        <v>0.009927780415838845</v>
       </c>
       <c r="T35">
-        <v>0.02022026429577832</v>
+        <v>0.007314467165917164</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H36">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I36">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J36">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N36">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O36">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P36">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q36">
-        <v>1767.274059981106</v>
+        <v>10652.38013112366</v>
       </c>
       <c r="R36">
-        <v>15905.46653982996</v>
+        <v>95871.42118011296</v>
       </c>
       <c r="S36">
-        <v>0.02039254949403203</v>
+        <v>0.1028450215762372</v>
       </c>
       <c r="T36">
-        <v>0.02248053950226381</v>
+        <v>0.1136593229284071</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H37">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I37">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J37">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N37">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O37">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P37">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q37">
-        <v>15301.28215793352</v>
+        <v>3176.318763776589</v>
       </c>
       <c r="R37">
-        <v>137711.5394214016</v>
+        <v>28586.8688739893</v>
       </c>
       <c r="S37">
-        <v>0.1765612707126728</v>
+        <v>0.03066625183973337</v>
       </c>
       <c r="T37">
-        <v>0.1946393520823738</v>
+        <v>0.03389085215245321</v>
       </c>
     </row>
   </sheetData>
